--- a/Indices/Output Files/Confounding_Variable_Correlation_Tables.xlsx
+++ b/Indices/Output Files/Confounding_Variable_Correlation_Tables.xlsx
@@ -2487,10 +2487,10 @@
         <v>62</v>
       </c>
       <c r="G43">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H43">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I43" t="s">
         <v>62</v>
@@ -2499,13 +2499,13 @@
         <v>63</v>
       </c>
       <c r="K43">
-        <v>0.08449588885337549</v>
+        <v>0.08401360711061664</v>
       </c>
       <c r="L43" t="s">
         <v>65</v>
       </c>
       <c r="M43">
-        <v>0.0855787154184417</v>
+        <v>0.08700382126147889</v>
       </c>
       <c r="N43" t="s">
         <v>69</v>
@@ -4335,10 +4335,10 @@
         <v>62</v>
       </c>
       <c r="G85">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H85">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I85" t="s">
         <v>62</v>
@@ -4347,13 +4347,13 @@
         <v>63</v>
       </c>
       <c r="K85">
-        <v>-0.04241656296061272</v>
+        <v>-0.04641425578750533</v>
       </c>
       <c r="L85" t="s">
         <v>65</v>
       </c>
       <c r="M85">
-        <v>0.4035222297075836</v>
+        <v>0.3600144933658597</v>
       </c>
       <c r="N85" t="s">
         <v>69</v>
@@ -6183,10 +6183,10 @@
         <v>62</v>
       </c>
       <c r="G127">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H127">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I127" t="s">
         <v>62</v>
@@ -6195,13 +6195,13 @@
         <v>63</v>
       </c>
       <c r="K127">
-        <v>0.02267706794135049</v>
+        <v>0.02106238616095021</v>
       </c>
       <c r="L127" t="s">
         <v>65</v>
       </c>
       <c r="M127">
-        <v>0.6641503765223878</v>
+        <v>0.6863472730715221</v>
       </c>
       <c r="N127" t="s">
         <v>69</v>
@@ -8031,10 +8031,10 @@
         <v>62</v>
       </c>
       <c r="G169">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H169">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I169" t="s">
         <v>62</v>
@@ -8043,13 +8043,13 @@
         <v>63</v>
       </c>
       <c r="K169">
-        <v>0.05548686323364065</v>
+        <v>0.05626605740120654</v>
       </c>
       <c r="L169" t="s">
         <v>65</v>
       </c>
       <c r="M169">
-        <v>0.2864384033623573</v>
+        <v>0.2790633342906872</v>
       </c>
       <c r="N169" t="s">
         <v>69</v>
@@ -9879,10 +9879,10 @@
         <v>62</v>
       </c>
       <c r="G211">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H211">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I211" t="s">
         <v>62</v>
@@ -11727,10 +11727,10 @@
         <v>62</v>
       </c>
       <c r="G253">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H253">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I253" t="s">
         <v>62</v>
@@ -11739,13 +11739,13 @@
         <v>63</v>
       </c>
       <c r="K253">
-        <v>0.03145295254391116</v>
+        <v>0.02810014340484358</v>
       </c>
       <c r="L253" t="s">
         <v>65</v>
       </c>
       <c r="M253">
-        <v>0.5458890347119758</v>
+        <v>0.589018664825008</v>
       </c>
       <c r="N253" t="s">
         <v>69</v>
@@ -13575,10 +13575,10 @@
         <v>62</v>
       </c>
       <c r="G295">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H295">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I295" t="s">
         <v>62</v>
@@ -13587,13 +13587,13 @@
         <v>63</v>
       </c>
       <c r="K295">
-        <v>0.05711391597750543</v>
+        <v>0.05567990229478959</v>
       </c>
       <c r="L295" t="s">
         <v>65</v>
       </c>
       <c r="M295">
-        <v>0.2738262305829585</v>
+        <v>0.285417125524393</v>
       </c>
       <c r="N295" t="s">
         <v>69</v>
@@ -15090,10 +15090,10 @@
         <v>61</v>
       </c>
       <c r="D43">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="E43">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="F43" t="s">
         <v>73</v>
@@ -15102,13 +15102,13 @@
         <v>74</v>
       </c>
       <c r="H43">
-        <v>-0.02025515140775909</v>
+        <v>-0.01815362540055589</v>
       </c>
       <c r="I43" t="s">
         <v>76</v>
       </c>
       <c r="J43">
-        <v>0.5604763143328337</v>
+        <v>0.6013629894753607</v>
       </c>
       <c r="K43" t="s">
         <v>69</v>
@@ -16560,10 +16560,10 @@
         <v>61</v>
       </c>
       <c r="D85">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="E85">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="F85" t="s">
         <v>73</v>
@@ -16572,13 +16572,13 @@
         <v>74</v>
       </c>
       <c r="H85">
-        <v>0.04075978513372096</v>
+        <v>0.03970300203857263</v>
       </c>
       <c r="I85" t="s">
         <v>76</v>
       </c>
       <c r="J85">
-        <v>0.2433517910375279</v>
+        <v>0.255141056851428</v>
       </c>
       <c r="K85" t="s">
         <v>69</v>
@@ -17949,10 +17949,10 @@
         <v>61</v>
       </c>
       <c r="D43">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="E43">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="F43" t="s">
         <v>69</v>
@@ -17961,10 +17961,10 @@
         <v>80</v>
       </c>
       <c r="H43">
-        <v>4.337989499179685</v>
+        <v>4.015929388302311</v>
       </c>
       <c r="I43">
-        <v>0.3621921794065918</v>
+        <v>0.4038543339979337</v>
       </c>
       <c r="J43" t="s">
         <v>69</v>
@@ -19293,10 +19293,10 @@
         <v>61</v>
       </c>
       <c r="D85">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="E85">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="F85" t="s">
         <v>69</v>
@@ -19305,10 +19305,10 @@
         <v>80</v>
       </c>
       <c r="H85">
-        <v>33.14127817596523</v>
+        <v>33.16922101584328</v>
       </c>
       <c r="I85">
-        <v>0.0001261950455047897</v>
+        <v>0.0001247878464164117</v>
       </c>
       <c r="J85" t="s">
         <v>70</v>
@@ -20637,10 +20637,10 @@
         <v>61</v>
       </c>
       <c r="D127">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="E127">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="F127" t="s">
         <v>69</v>
@@ -20649,10 +20649,10 @@
         <v>80</v>
       </c>
       <c r="H127">
-        <v>2.289027853408015</v>
+        <v>2.601296845620709</v>
       </c>
       <c r="I127">
-        <v>0.5146261372869203</v>
+        <v>0.4572622384499931</v>
       </c>
       <c r="J127" t="s">
         <v>69</v>
